--- a/biology/Zoologie/Alfred_Brazier_Howell/Alfred_Brazier_Howell.xlsx
+++ b/biology/Zoologie/Alfred_Brazier_Howell/Alfred_Brazier_Howell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Brazier Howell est un zoologiste américain, né le 28 juillet 1886 à Catonsville, Maryland et mort le 23 décembre 1961 à Bangor, Maine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Yale en 1905-1906. En 1910, il se rend à Californie où il commence à étudier les oiseaux des Channel Islands. En 1918, il fait un voyage scientifique en Arizona. En 1921, il devient le vice-président de la Société ornithologique Cooper. L’année suivante, il se rend à Washington DC. En 1923 et en 1924, il fait des excursions d’étude en Californie.
 Howell travaille, de 1923 à 1927, comme assistant scientifiques au service de recherche biologique des États-Unis. De 1928 à 1943, il donne des cours d’anatomie au département d’anatomie à l’école de médecine de l’université Johns-Hopkins.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1917 : Birds of the islands off the coast of southern California (The Club, Hollywood).
 1926 : A symmetry in the skulls of mammals (Washington).
@@ -584,7 +600,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Luther Little (1968), Alfred Brazier Howell, 1886-1961. Journal of Mammalogy, 49, N° 4 (Nov., 1968), pp. 732–742.</t>
         </is>
